--- a/spec/ASW/Eng/ETS/ETSPth/PthSet/PthSet_TrqCalc/PthSet_TrqCalc.xlsx
+++ b/spec/ASW/Eng/ETS/ETSPth/PthSet/PthSet_TrqCalc/PthSet_TrqCalc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\Unitfolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Eng\ETS\ETSPth\PthSet\PthSet_TrqCalc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1E728A-8F39-4BDA-97A9-68E28248061F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612ECB32-BF7D-4C15-A17B-EA3CB4664E3B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -70,6 +70,304 @@
   </si>
   <si>
     <t>InitialValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT_bNoGrip</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>Grip reliable exclude</t>
+  </si>
+  <si>
+    <t>PT_rTrq</t>
+  </si>
+  <si>
+    <t>Powertrain torque ratio</t>
+  </si>
+  <si>
+    <t>CoETS_trqUnFltLtd</t>
+  </si>
+  <si>
+    <t>Nm</t>
+  </si>
+  <si>
+    <t>Limited idle speed governor torque</t>
+  </si>
+  <si>
+    <t>CoETS_trqInrLimSet</t>
+  </si>
+  <si>
+    <t>Limitation torque without the part of the speed governor</t>
+  </si>
+  <si>
+    <t>ASDrf_trqInrSet</t>
+  </si>
+  <si>
+    <t>ASD reference filter torque output</t>
+  </si>
+  <si>
+    <t>ASDdc_trq</t>
+  </si>
+  <si>
+    <t>ASD disturbance compensator torque output</t>
+  </si>
+  <si>
+    <t>CoEng_stShutOffPath</t>
+  </si>
+  <si>
+    <t>Active shut-off paths resulting from active reversible,irreversible and afterrun shut-off paths</t>
+  </si>
+  <si>
+    <t>CoEng_st</t>
+  </si>
+  <si>
+    <t>Engine coordinator state</t>
+  </si>
+  <si>
+    <t>StSys_trqStrt</t>
+  </si>
+  <si>
+    <t>Engine starting torque</t>
+  </si>
+  <si>
+    <t>PthSet_stOvrRun</t>
+  </si>
+  <si>
+    <t>State of overrun detection (0: No overrun; 1: overrun)</t>
+  </si>
+  <si>
+    <t>EngTrqPtd_trqLim</t>
+  </si>
+  <si>
+    <t>Set path torque limitation from ECU monitoring</t>
+  </si>
+  <si>
+    <t>EngTrqPtd_stPthLim</t>
+  </si>
+  <si>
+    <t>State of engine torque limitation from ECU monitoring</t>
+  </si>
+  <si>
+    <t>CoETS_stEngStopReq</t>
+  </si>
+  <si>
+    <t>Tbox Engine stop request</t>
+  </si>
+  <si>
+    <t>CoETS_stEngEmgcyRunReq</t>
+  </si>
+  <si>
+    <t>Tbox Engine emergency start request</t>
+  </si>
+  <si>
+    <t>PthSet_trqInrSetSum</t>
+  </si>
+  <si>
+    <t>Sum of inner set torque</t>
+  </si>
+  <si>
+    <t>PthSet_stActvMonLim</t>
+  </si>
+  <si>
+    <t>State of monitoring limitation</t>
+  </si>
+  <si>
+    <t>PthSet_trqInrSet</t>
+  </si>
+  <si>
+    <t>Inner torque set value after monitoring limitation</t>
+  </si>
+  <si>
+    <t>PthSet_stDisable</t>
+  </si>
+  <si>
+    <t>Condition: overrun fuel cut-off</t>
+  </si>
+  <si>
+    <t>PthSet_trqSetASDdc</t>
+  </si>
+  <si>
+    <t>Inner torque set value after first limitation</t>
+  </si>
+  <si>
+    <t>PthSet_trqInrSetNoMo</t>
+  </si>
+  <si>
+    <t>Inner torque set value before monitoring limitation</t>
+  </si>
+  <si>
+    <t>PthSet_trqBefPeakLim_mp</t>
+  </si>
+  <si>
+    <t>Maximum torque value before railpressure peak limiter</t>
+  </si>
+  <si>
+    <t>PthSet_tiSwtOff_mp</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>Time for switch off after overrun detection</t>
+  </si>
+  <si>
+    <t>PthSet_tiRmpStrt_mp</t>
+  </si>
+  <si>
+    <t>Time after overrun detection for ramp start</t>
+  </si>
+  <si>
+    <t>PthSet_dtrqRmpDwn_mp</t>
+  </si>
+  <si>
+    <t>Nm/s</t>
+  </si>
+  <si>
+    <t>Value for ramp negative slope</t>
+  </si>
+  <si>
+    <t>PthSet_trqRmp_mp</t>
+  </si>
+  <si>
+    <t>Ramp output torque of overrun shut off</t>
+  </si>
+  <si>
+    <t>PthSet_stRmp_mp</t>
+  </si>
+  <si>
+    <t>Ramp state for overrun shut off (0: inactive; 1: active)</t>
+  </si>
+  <si>
+    <t>PthSet_trqInrSet_mp</t>
+  </si>
+  <si>
+    <t>PthSet: inner torque set value measure point</t>
+  </si>
+  <si>
+    <t>PthSet_trqLimOffs_mp</t>
+  </si>
+  <si>
+    <t>Limitation torque value with offset</t>
+  </si>
+  <si>
+    <t>PthSet_trqBefRmp_mp</t>
+  </si>
+  <si>
+    <t>Set torque after second limitation, before overrun shut off</t>
+  </si>
+  <si>
+    <t>PthSet_trqOffs_C</t>
+  </si>
+  <si>
+    <t>Offset on limitation torque value to allow ASDdc to work</t>
+  </si>
+  <si>
+    <t>PthSet_tiSwtOffDfl_C</t>
+  </si>
+  <si>
+    <t>Default time after overrun detection until switch off</t>
+  </si>
+  <si>
+    <t>PthSet_tiRmpStrtDfl_C</t>
+  </si>
+  <si>
+    <t>Default time after overrun detection until ramp starts</t>
+  </si>
+  <si>
+    <t>PthSet_dtrqRmpDwnDfl_C</t>
+  </si>
+  <si>
+    <t>Torque ramp negative slope</t>
+  </si>
+  <si>
+    <t>PthSet_dtrqRmpDwn_CUR</t>
+  </si>
+  <si>
+    <t>[100 100 100 100 100 100]</t>
+  </si>
+  <si>
+    <t>curve of ramp slope</t>
+  </si>
+  <si>
+    <t>PthSet_dtrqRmpDwn_CURX</t>
+  </si>
+  <si>
+    <t>[0.7 1.1 1.7 2.5 3.5 4.5]</t>
+  </si>
+  <si>
+    <t>axis of ramp slope</t>
+  </si>
+  <si>
+    <t>PthSet_tiSwtOff_CURX</t>
+  </si>
+  <si>
+    <t>axis of time before switchoff</t>
+  </si>
+  <si>
+    <t>PthSet_tiSwtOff_CUR</t>
+  </si>
+  <si>
+    <t>[1000 1000 1000 1000 1000 1000]</t>
+  </si>
+  <si>
+    <t>curve of time before switchoff</t>
+  </si>
+  <si>
+    <t>PthSet_tiRmpStrt_CURX</t>
+  </si>
+  <si>
+    <t>axis of time before start ramp</t>
+  </si>
+  <si>
+    <t>PthSet_tiRmpStrt_CUR</t>
+  </si>
+  <si>
+    <t>[500 500 500 500 500 500]</t>
+  </si>
+  <si>
+    <t>curve of time before start ramp</t>
+  </si>
+  <si>
+    <t>TRQ_ZERO</t>
+  </si>
+  <si>
+    <t>torque to be 0</t>
+  </si>
+  <si>
+    <t>Torq</t>
+  </si>
+  <si>
+    <t>TraGear</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Enum:EngState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Torq_s</t>
+  </si>
+  <si>
+    <t>Debncd_ms</t>
+  </si>
+  <si>
+    <t>[1 6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>State2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -501,6 +799,340 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-100</v>
+      </c>
+      <c r="C3" s="5">
+        <v>100</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-3276</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3276</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>65535</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="5">
+        <v>-3276</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3276</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>255</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -510,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,6 +1186,81 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>255</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -563,10 +1270,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -575,7 +1282,7 @@
     <col min="2" max="4" width="9" style="5"/>
     <col min="5" max="5" width="12" style="5" customWidth="1"/>
     <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="10.875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="4" customWidth="1"/>
     <col min="8" max="8" width="37.625" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
@@ -604,6 +1311,312 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>65535</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>65535</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +1630,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -657,20 +1670,256 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>65535</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>65535</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6">
+        <v>500</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>100</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-327</v>
+      </c>
+      <c r="C7" s="5">
+        <v>327</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="5">
+        <v>-327</v>
+      </c>
+      <c r="C8" s="5">
+        <v>327</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>65535</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="5">
+        <v>-327</v>
+      </c>
+      <c r="C10" s="5">
+        <v>327</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>65535</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E12" s="6"/>
@@ -726,10 +1975,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -759,6 +2008,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
